--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
@@ -31,7 +31,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>★台新國際商業銀行南京 東路分行</t>
+    <t>台新國際商業銀行南京東路分行</t>
   </si>
   <si>
     <t>活期存款</t>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>台新國際商業銀行南京東路分行</t>
   </si>
@@ -99,12 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,27 +402,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F1" s="1">
         <v>7175</v>
       </c>
     </row>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>台新國際商業銀行南京東路分行</t>
   </si>
@@ -84,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +404,26 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
         <v>7175</v>
       </c>
     </row>

--- a/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
+++ b/legislator/property/output/normal/李慶華_2011-11-30_財產申報表_tmp2e001.xlsx
@@ -14,7 +14,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>台新國際商業銀行南京東路分行</t>
   </si>
@@ -26,6 +62,18 @@
   </si>
   <si>
     <t>李慶華</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-30</t>
+  </si>
+  <si>
+    <t>tmp2e001</t>
   </si>
 </sst>
 </file>
@@ -384,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,28 +451,70 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>7175</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>7175</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>607</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
